--- a/components/mockup-data/data/group.xlsx
+++ b/components/mockup-data/data/group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Học kì VII\Web\Kahoot\BE\components\mockup-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA17B32-6E0D-4845-BDA8-158E2B4BD8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6486FAD-77E6-4BC2-97BE-CC69DA545D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,41 +42,41 @@
     <t>member_can_see_other</t>
   </si>
   <si>
-    <t>Eadel</t>
-  </si>
-  <si>
-    <t>Kamba</t>
-  </si>
-  <si>
-    <t>Demizz</t>
-  </si>
-  <si>
-    <t>Reallinks</t>
-  </si>
-  <si>
     <t>Twinder</t>
   </si>
   <si>
-    <t>Bubblemix</t>
-  </si>
-  <si>
     <t>Plambee</t>
   </si>
   <si>
     <t>Skipfire</t>
   </si>
   <si>
-    <t>Skinix</t>
-  </si>
-  <si>
     <t>Super Group</t>
+  </si>
+  <si>
+    <t>Dynamos</t>
+  </si>
+  <si>
+    <t>Commodores</t>
+  </si>
+  <si>
+    <t>Annihilators</t>
+  </si>
+  <si>
+    <t>Insurgents</t>
+  </si>
+  <si>
+    <t>Condors</t>
+  </si>
+  <si>
+    <t>Flames</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +95,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,12 +123,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +413,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,7 +444,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -454,7 +461,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -471,7 +478,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -488,7 +495,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -504,8 +511,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
+      <c r="A6" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -522,7 +529,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -539,7 +546,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -556,7 +563,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -573,7 +580,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -590,7 +597,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
